--- a/Documents/POC Product Selection- Coach Outlet.xlsx
+++ b/Documents/POC Product Selection- Coach Outlet.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Assessment\Product descriptor\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FF757-CAC6-4529-B75A-A0168EFD4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model Training"/>
-    <sheet r:id="rId2" sheetId="2" name="1 New Romance Copy Generation"/>
-    <sheet r:id="rId3" sheetId="3" name="2 New Products Part of MegaPDP​"/>
-    <sheet r:id="rId4" sheetId="4" name="3 Products for SEO Enrichment"/>
-    <sheet r:id="rId5" sheetId="5" name="Full Catalog Short Descriptions"/>
+    <sheet name="Model Training" sheetId="1" r:id="rId1"/>
+    <sheet name="1 New Romance Copy Generation" sheetId="2" r:id="rId2"/>
+    <sheet name="2 New Products Part of MegaPDP​" sheetId="3" r:id="rId3"/>
+    <sheet name="3 Products for SEO Enrichment" sheetId="4" r:id="rId4"/>
+    <sheet name="Full Catalog Short Descriptions" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'2 New Products Part of MegaPDP​'!$B$1:$AN$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'3 Products for SEO Enrichment'!$B$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Full Catalog Short Descriptions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Model Training'!$A$1:$AN$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Full Catalog Short Descriptions'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1938">
   <si>
     <t>Item#</t>
   </si>
@@ -2634,10 +2640,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;p&gt;</t>
-    </r>
-    <r>
-      <t>class="TextRun SCXW180448333 BCX4" lang="EN-US" style="white-space: pre-wrap; -webkit-user-drag: none; margin: 0px; padding: 0px; -webkit-user-select: text; font-size: 11pt; line-height: 19.7625px; font-family: 'IBM Plex Sans', 'IBM Plex Sans_EmbeddedFont', 'IBM Plex Sans_MSFontService', sans-serif; font-variant-ligatures: none !important; -webkit-nbsp-mode: normal !important;" xml:lang="EN-US" data-contrast="none"&gt;</t>
+      <t>&lt;p&gt;class="TextRun SCXW180448333 BCX4" lang="EN-US" style="white-space: pre-wrap; -webkit-user-drag: none; margin: 0px; padding: 0px; -webkit-user-select: text; font-size: 11pt; line-height: 19.7625px; font-family: 'IBM Plex Sans', 'IBM Plex Sans_EmbeddedFont', 'IBM Plex Sans_MSFontService', sans-serif; font-variant-ligatures: none !important; -webkit-nbsp-mode: normal !important;" xml:lang="EN-US" data-contrast="none"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -5994,13 +5997,30 @@
   <si>
     <t>https://coach.scene7.com/is/image/Coach/cy677_imxi9_a8?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi9_a3?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi9_swatch?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi9_a91?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi9_a92?$desktopProduct$`https://coach.scene7.com/is/image/Coach/cy677_imxi8_a3?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi8_swatch?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi8_a8?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi8_a91?$desktopProduct$,https://coach.scene7.com/is/image/Coach/cy677_imxi8_a92?$desktopProduct$</t>
   </si>
+  <si>
+    <t>CM067</t>
+  </si>
+  <si>
+    <t>Smith Tote Bag</t>
+  </si>
+  <si>
+    <t>Refined pebble leather</t>
+  </si>
+  <si>
+    <t>Inside zip pocket,Inside multifunction pocket</t>
+  </si>
+  <si>
+    <t>https://coach.scene7.com/is/image/Coach/cm067_sva47_a0?$desktopProduct$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6033,6 +6053,26 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6058,95 +6098,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6157,10 +6201,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -6198,71 +6242,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6290,7 +6334,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -6313,11 +6357,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -6326,13 +6370,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6342,7 +6386,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -6351,7 +6395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6360,7 +6404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6368,10 +6412,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -6436,85 +6480,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:BN22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="126.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="45.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="16" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="18" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="16" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="16" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="66" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6635,34 +6653,8 @@
       <c r="AN1" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    </row>
+    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1860</v>
       </c>
@@ -6731,34 +6723,8 @@
       <c r="AN2" s="8" t="s">
         <v>1864</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>270</v>
       </c>
@@ -6839,34 +6805,8 @@
       <c r="AN3" s="8" t="s">
         <v>1868</v>
       </c>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>691</v>
       </c>
@@ -6951,34 +6891,8 @@
       <c r="AN4" s="8" t="s">
         <v>1875</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>464</v>
       </c>
@@ -7057,34 +6971,8 @@
       <c r="AN5" s="8" t="s">
         <v>1879</v>
       </c>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="24"/>
-      <c r="BN5" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>424</v>
       </c>
@@ -7169,34 +7057,8 @@
       <c r="AN6" s="8" t="s">
         <v>1884</v>
       </c>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="24"/>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="24"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>415</v>
       </c>
@@ -7279,34 +7141,8 @@
       <c r="AN7" s="8" t="s">
         <v>1809</v>
       </c>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>420</v>
       </c>
@@ -7385,34 +7221,8 @@
       <c r="AN8" s="8" t="s">
         <v>1815</v>
       </c>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="24"/>
-      <c r="BN8" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>514</v>
       </c>
@@ -7491,34 +7301,8 @@
       <c r="AN9" s="8" t="s">
         <v>1891</v>
       </c>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>521</v>
       </c>
@@ -7597,34 +7381,8 @@
       <c r="AN10" s="8" t="s">
         <v>1894</v>
       </c>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>678</v>
       </c>
@@ -7705,34 +7463,8 @@
       <c r="AN11" s="8" t="s">
         <v>1898</v>
       </c>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>503</v>
       </c>
@@ -7815,34 +7547,8 @@
       <c r="AN12" s="8" t="s">
         <v>1820</v>
       </c>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>507</v>
       </c>
@@ -7921,34 +7627,8 @@
       <c r="AN13" s="8" t="s">
         <v>1904</v>
       </c>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row r="14" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>545</v>
       </c>
@@ -8029,34 +7709,8 @@
       <c r="AN14" s="8" t="s">
         <v>1823</v>
       </c>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="24"/>
-      <c r="BK14" s="24"/>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row r="15" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>496</v>
       </c>
@@ -8133,34 +7787,8 @@
       <c r="AN15" s="8" t="s">
         <v>1907</v>
       </c>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="24"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    </row>
+    <row r="16" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>738</v>
       </c>
@@ -8241,34 +7869,8 @@
       <c r="AN16" s="8" t="s">
         <v>1912</v>
       </c>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BL16" s="24"/>
-      <c r="BM16" s="24"/>
-      <c r="BN16" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    </row>
+    <row r="17" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>742</v>
       </c>
@@ -8351,34 +7953,8 @@
       <c r="AN17" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row r="18" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>709</v>
       </c>
@@ -8463,34 +8039,8 @@
       <c r="AN18" s="8" t="s">
         <v>1919</v>
       </c>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    </row>
+    <row r="19" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>733</v>
       </c>
@@ -8573,34 +8123,8 @@
       <c r="AN19" s="8" t="s">
         <v>1632</v>
       </c>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="24"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    </row>
+    <row r="20" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>749</v>
       </c>
@@ -8681,34 +8205,8 @@
       <c r="AN20" s="8" t="s">
         <v>1928</v>
       </c>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
-      <c r="AW20" s="24"/>
-      <c r="AX20" s="24"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="24"/>
-      <c r="BG20" s="24"/>
-      <c r="BH20" s="24"/>
-      <c r="BI20" s="24"/>
-      <c r="BJ20" s="24"/>
-      <c r="BK20" s="24"/>
-      <c r="BL20" s="24"/>
-      <c r="BM20" s="24"/>
-      <c r="BN20" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    </row>
+    <row r="21" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>782</v>
       </c>
@@ -8787,100 +8285,35 @@
       <c r="AN21" s="8" t="s">
         <v>1932</v>
       </c>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
+    </row>
+    <row r="22" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8888,59 +8321,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="45.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="18" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1529</v>
       </c>
@@ -9062,8 +8496,8 @@
         <v>1565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="19">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -9144,8 +8578,8 @@
         <v>1771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>999</v>
       </c>
@@ -9224,8 +8658,8 @@
         <v>1778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="8" t="s">
         <v>1340</v>
       </c>
@@ -9304,8 +8738,8 @@
         <v>1781</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
         <v>1153</v>
       </c>
@@ -9388,8 +8822,8 @@
         <v>1696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="8" t="s">
         <v>1430</v>
       </c>
@@ -9472,8 +8906,8 @@
         <v>1788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>1789</v>
       </c>
@@ -9481,8 +8915,8 @@
       <c r="D7" s="8" t="s">
         <v>1790</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>1746</v>
+      <c r="E7" s="20" t="s">
+        <v>1935</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -9490,15 +8924,23 @@
         <v>1568</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="20" t="s">
+        <v>1935</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="18" t="s">
+        <v>1706</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="8"/>
+      <c r="Q7" s="18" t="s">
+        <v>1936</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>1603</v>
+      </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -9519,15 +8961,15 @@
       <c r="AJ7" s="6"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="8" t="s">
+      <c r="AM7" s="26" t="s">
         <v>1791</v>
       </c>
       <c r="AN7" s="8" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
@@ -9610,8 +9052,8 @@
         <v>1798</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="19">
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -9694,8 +9136,8 @@
         <v>1803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="8" t="s">
         <v>415</v>
       </c>
@@ -9776,8 +9218,8 @@
         <v>1809</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="20"/>
+    <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>420</v>
       </c>
@@ -9854,8 +9296,8 @@
         <v>1815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="20"/>
+    <row r="12" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>503</v>
       </c>
@@ -9936,8 +9378,8 @@
         <v>1820</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>545</v>
       </c>
@@ -10016,8 +9458,8 @@
         <v>1823</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>512</v>
       </c>
@@ -10098,8 +9540,8 @@
         <v>1829</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="20"/>
+    <row r="15" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>742</v>
       </c>
@@ -10180,8 +9622,8 @@
         <v>1834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="22">
+    <row r="16" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -10260,8 +9702,8 @@
         <v>1837</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>538</v>
       </c>
@@ -10344,8 +9786,8 @@
         <v>1842</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
         <v>791</v>
       </c>
@@ -10424,8 +9866,8 @@
         <v>1847</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>837</v>
       </c>
@@ -10506,8 +9948,8 @@
         <v>1851</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
       <c r="B20" s="8" t="s">
         <v>860</v>
       </c>
@@ -10590,8 +10032,8 @@
         <v>1856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
         <v>774</v>
       </c>
@@ -10673,6 +10115,41 @@
       <c r="AN21" s="8" t="s">
         <v>1859</v>
       </c>
+    </row>
+    <row r="22" spans="1:40" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>4</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>1706</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>1936</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10680,12 +10157,15 @@
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AM7" r:id="rId1" xr:uid="{A352101B-A991-419E-96EF-198D5EC671F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -10695,49 +10175,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="45.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="18" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="18" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="18" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="18" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1529</v>
       </c>
@@ -10859,8 +10338,8 @@
         <v>1565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="19">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -10941,8 +10420,8 @@
         <v>1647</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>1115</v>
       </c>
@@ -11021,8 +10500,8 @@
         <v>1653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="8" t="s">
         <v>1123</v>
       </c>
@@ -11107,8 +10586,8 @@
         <v>1664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
         <v>1665</v>
       </c>
@@ -11191,8 +10670,8 @@
         <v>1676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="8" t="s">
         <v>1104</v>
       </c>
@@ -11269,8 +10748,8 @@
         <v>1682</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>1683</v>
       </c>
@@ -11345,8 +10824,8 @@
         <v>1687</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="19">
+    <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -11427,8 +10906,8 @@
         <v>1691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>1153</v>
       </c>
@@ -11511,8 +10990,8 @@
         <v>1696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="8" t="s">
         <v>1187</v>
       </c>
@@ -11591,8 +11070,8 @@
         <v>1702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="20"/>
+    <row r="11" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>1703</v>
       </c>
@@ -11675,8 +11154,8 @@
         <v>1710</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="20"/>
+    <row r="12" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>1171</v>
       </c>
@@ -11757,8 +11236,8 @@
         <v>1717</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>1718</v>
       </c>
@@ -11827,8 +11306,8 @@
         <v>1721</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>1149</v>
       </c>
@@ -11911,8 +11390,8 @@
         <v>1730</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="19">
+    <row r="15" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -11997,8 +11476,8 @@
         <v>1734</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>1735</v>
       </c>
@@ -12075,8 +11554,8 @@
         <v>1740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>1174</v>
       </c>
@@ -12155,8 +11634,8 @@
         <v>1744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
         <v>1745</v>
       </c>
@@ -12209,8 +11688,8 @@
         <v>1748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="20"/>
+    <row r="19" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>1749</v>
       </c>
@@ -12263,8 +11742,8 @@
         <v>1751</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="20"/>
+    <row r="20" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
         <v>1752</v>
       </c>
@@ -12319,8 +11798,8 @@
         <v>1754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>1755</v>
       </c>
@@ -12414,7 +11893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -12424,49 +11903,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="45.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="18" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="18" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="18" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="18" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1529</v>
       </c>
@@ -12588,8 +12065,8 @@
         <v>1565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="19">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -12676,8 +12153,8 @@
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="9" t="s">
         <v>1443</v>
       </c>
@@ -12754,8 +12231,8 @@
         <v>1596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="9" t="s">
         <v>1011</v>
       </c>
@@ -12840,8 +12317,8 @@
         <v>1614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="19">
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -12920,8 +12397,8 @@
         <v>1621</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="9" t="s">
         <v>733</v>
       </c>
@@ -13002,8 +12479,8 @@
         <v>1632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="9" t="s">
         <v>703</v>
       </c>
@@ -13092,23 +12569,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D627"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="104.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row r="1" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13122,7 +12599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row r="2" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>58032</v>
       </c>
@@ -13136,7 +12613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row r="3" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -13150,7 +12627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row r="4" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>6303</v>
       </c>
@@ -13164,7 +12641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row r="5" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -13178,7 +12655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row r="6" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -13192,7 +12669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row r="7" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>936</v>
       </c>
@@ -13206,7 +12683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row r="8" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5666</v>
       </c>
@@ -13220,7 +12697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row r="9" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -13234,7 +12711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row r="10" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>88250</v>
       </c>
@@ -13248,7 +12725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row r="11" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>55565</v>
       </c>
@@ -13262,7 +12739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row r="12" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6390</v>
       </c>
@@ -13276,7 +12753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row r="13" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4011</v>
       </c>
@@ -13290,7 +12767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row r="14" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1665</v>
       </c>
@@ -13304,7 +12781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row r="15" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>4910</v>
       </c>
@@ -13318,7 +12795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row r="16" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -13330,7 +12807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row r="17" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -13342,7 +12819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row r="18" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
@@ -13356,7 +12833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row r="19" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>67630</v>
       </c>
@@ -13368,7 +12845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row r="20" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -13382,7 +12859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row r="21" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>4009</v>
       </c>
@@ -13396,7 +12873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row r="22" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>5669</v>
       </c>
@@ -13408,7 +12885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row r="23" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>23845</v>
       </c>
@@ -13420,7 +12897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row r="24" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>4006</v>
       </c>
@@ -13432,7 +12909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row r="25" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
@@ -13446,7 +12923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row r="26" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>4007</v>
       </c>
@@ -13458,7 +12935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row r="27" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -13472,7 +12949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row r="28" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -13486,7 +12963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row r="29" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -13500,7 +12977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row r="30" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>87</v>
       </c>
@@ -13514,7 +12991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row r="31" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
@@ -13528,7 +13005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row r="32" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>93</v>
       </c>
@@ -13542,7 +13019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row r="33" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>97</v>
       </c>
@@ -13556,7 +13033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row r="34" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
@@ -13568,7 +13045,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row r="35" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>104</v>
       </c>
@@ -13582,7 +13059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row r="36" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>108</v>
       </c>
@@ -13594,7 +13071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row r="37" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>111</v>
       </c>
@@ -13606,7 +13083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row r="38" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>114</v>
       </c>
@@ -13620,7 +13097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
+    <row r="39" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
@@ -13634,7 +13111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row r="40" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>122</v>
       </c>
@@ -13646,7 +13123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row r="41" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>125</v>
       </c>
@@ -13660,7 +13137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row r="42" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>129</v>
       </c>
@@ -13674,7 +13151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row r="43" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>133</v>
       </c>
@@ -13686,7 +13163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row r="44" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>136</v>
       </c>
@@ -13698,7 +13175,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row r="45" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>139</v>
       </c>
@@ -13712,7 +13189,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row r="46" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>143</v>
       </c>
@@ -13724,7 +13201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row r="47" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>145</v>
       </c>
@@ -13738,7 +13215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row r="48" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>149</v>
       </c>
@@ -13750,7 +13227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row r="49" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>152</v>
       </c>
@@ -13762,7 +13239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row r="50" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>155</v>
       </c>
@@ -13774,7 +13251,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row r="51" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>158</v>
       </c>
@@ -13786,7 +13263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row r="52" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>161</v>
       </c>
@@ -13800,7 +13277,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row r="53" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>165</v>
       </c>
@@ -13814,7 +13291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+    <row r="54" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>169</v>
       </c>
@@ -13826,7 +13303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+    <row r="55" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>172</v>
       </c>
@@ -13838,7 +13315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row r="56" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>173</v>
       </c>
@@ -13852,7 +13329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row r="57" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
@@ -13864,7 +13341,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row r="58" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>180</v>
       </c>
@@ -13876,7 +13353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
@@ -13890,7 +13367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row r="60" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>187</v>
       </c>
@@ -13904,7 +13381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row r="61" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>191</v>
       </c>
@@ -13916,7 +13393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row r="62" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>193</v>
       </c>
@@ -13928,7 +13405,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row r="63" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>196</v>
       </c>
@@ -13942,7 +13419,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row r="64" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>200</v>
       </c>
@@ -13956,7 +13433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row r="65" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>204</v>
       </c>
@@ -13968,7 +13445,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row r="66" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>207</v>
       </c>
@@ -13980,7 +13457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row r="67" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>210</v>
       </c>
@@ -13994,7 +13471,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row r="68" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>213</v>
       </c>
@@ -14008,7 +13485,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row r="69" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>217</v>
       </c>
@@ -14022,7 +13499,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row r="70" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>221</v>
       </c>
@@ -14036,7 +13513,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row r="71" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>225</v>
       </c>
@@ -14048,7 +13525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row r="72" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>226</v>
       </c>
@@ -14062,7 +13539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row r="73" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>228</v>
       </c>
@@ -14074,7 +13551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row r="74" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>231</v>
       </c>
@@ -14088,7 +13565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+    <row r="75" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>233</v>
       </c>
@@ -14102,7 +13579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row r="76" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>235</v>
       </c>
@@ -14116,7 +13593,7 @@
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row r="77" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>239</v>
       </c>
@@ -14130,7 +13607,7 @@
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row r="78" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>243</v>
       </c>
@@ -14144,7 +13621,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row r="79" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>246</v>
       </c>
@@ -14158,7 +13635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row r="80" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>249</v>
       </c>
@@ -14172,7 +13649,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row r="81" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>252</v>
       </c>
@@ -14184,7 +13661,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row r="82" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>255</v>
       </c>
@@ -14198,7 +13675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+    <row r="83" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>259</v>
       </c>
@@ -14212,7 +13689,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row r="84" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>262</v>
       </c>
@@ -14224,7 +13701,7 @@
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row r="85" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>265</v>
       </c>
@@ -14238,7 +13715,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row r="86" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>267</v>
       </c>
@@ -14252,7 +13729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row r="87" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>270</v>
       </c>
@@ -14266,7 +13743,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row r="88" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>274</v>
       </c>
@@ -14278,7 +13755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row r="89" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>276</v>
       </c>
@@ -14290,7 +13767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row r="90" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>278</v>
       </c>
@@ -14304,7 +13781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
+    <row r="91" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>280</v>
       </c>
@@ -14316,7 +13793,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
+    <row r="92" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>282</v>
       </c>
@@ -14328,7 +13805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+    <row r="93" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>283</v>
       </c>
@@ -14342,7 +13819,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
+    <row r="94" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>287</v>
       </c>
@@ -14356,7 +13833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
+    <row r="95" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>289</v>
       </c>
@@ -14370,7 +13847,7 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row r="96" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>293</v>
       </c>
@@ -14384,7 +13861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
+    <row r="97" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>295</v>
       </c>
@@ -14398,7 +13875,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
+    <row r="98" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>297</v>
       </c>
@@ -14410,7 +13887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
+    <row r="99" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>299</v>
       </c>
@@ -14422,7 +13899,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row r="100" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>300</v>
       </c>
@@ -14434,7 +13911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row r="101" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>302</v>
       </c>
@@ -14446,7 +13923,7 @@
         <v>304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row r="102" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>305</v>
       </c>
@@ -14458,7 +13935,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row r="103" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>306</v>
       </c>
@@ -14470,7 +13947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row r="104" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>307</v>
       </c>
@@ -14482,7 +13959,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row r="105" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>308</v>
       </c>
@@ -14496,7 +13973,7 @@
         <v>311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
+    <row r="106" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>312</v>
       </c>
@@ -14508,7 +13985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row r="107" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>315</v>
       </c>
@@ -14522,7 +13999,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row r="108" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>319</v>
       </c>
@@ -14536,7 +14013,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row r="109" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>322</v>
       </c>
@@ -14548,7 +14025,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
+    <row r="110" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>324</v>
       </c>
@@ -14560,7 +14037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
+    <row r="111" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>327</v>
       </c>
@@ -14574,7 +14051,7 @@
         <v>314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
+    <row r="112" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>330</v>
       </c>
@@ -14588,7 +14065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
+    <row r="113" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>334</v>
       </c>
@@ -14602,7 +14079,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row r="114" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>338</v>
       </c>
@@ -14616,7 +14093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row r="115" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>341</v>
       </c>
@@ -14630,7 +14107,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row r="116" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>345</v>
       </c>
@@ -14642,7 +14119,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row r="117" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>348</v>
       </c>
@@ -14654,7 +14131,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row r="118" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>350</v>
       </c>
@@ -14666,7 +14143,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row r="119" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>352</v>
       </c>
@@ -14678,7 +14155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row r="120" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>354</v>
       </c>
@@ -14690,7 +14167,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row r="121" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>357</v>
       </c>
@@ -14702,7 +14179,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row r="122" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>359</v>
       </c>
@@ -14716,7 +14193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row r="123" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>362</v>
       </c>
@@ -14730,7 +14207,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row r="124" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>366</v>
       </c>
@@ -14744,7 +14221,7 @@
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row r="125" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>370</v>
       </c>
@@ -14758,7 +14235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row r="126" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>374</v>
       </c>
@@ -14770,7 +14247,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row r="127" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>377</v>
       </c>
@@ -14784,7 +14261,7 @@
         <v>380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row r="128" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>381</v>
       </c>
@@ -14796,7 +14273,7 @@
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row r="129" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>384</v>
       </c>
@@ -14808,7 +14285,7 @@
         <v>386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row r="130" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>387</v>
       </c>
@@ -14822,7 +14299,7 @@
         <v>390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row r="131" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>391</v>
       </c>
@@ -14834,7 +14311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row r="132" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>393</v>
       </c>
@@ -14846,7 +14323,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row r="133" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>395</v>
       </c>
@@ -14858,7 +14335,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row r="134" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>397</v>
       </c>
@@ -14870,7 +14347,7 @@
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
+    <row r="135" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>400</v>
       </c>
@@ -14882,7 +14359,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row r="136" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>402</v>
       </c>
@@ -14894,7 +14371,7 @@
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row r="137" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>405</v>
       </c>
@@ -14908,7 +14385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
+    <row r="138" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>408</v>
       </c>
@@ -14922,7 +14399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
+    <row r="139" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>411</v>
       </c>
@@ -14936,7 +14413,7 @@
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
+    <row r="140" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>413</v>
       </c>
@@ -14950,7 +14427,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row r="141" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>415</v>
       </c>
@@ -14964,7 +14441,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
+    <row r="142" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>417</v>
       </c>
@@ -14976,7 +14453,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
+    <row r="143" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>420</v>
       </c>
@@ -14990,7 +14467,7 @@
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row r="144" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>424</v>
       </c>
@@ -15004,7 +14481,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row r="145" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>428</v>
       </c>
@@ -15018,7 +14495,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row r="146" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>432</v>
       </c>
@@ -15030,7 +14507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row r="147" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>434</v>
       </c>
@@ -15042,7 +14519,7 @@
         <v>436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row r="148" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>437</v>
       </c>
@@ -15056,7 +14533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
+    <row r="149" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>440</v>
       </c>
@@ -15068,7 +14545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
+    <row r="150" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>442</v>
       </c>
@@ -15082,7 +14559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
+    <row r="151" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>445</v>
       </c>
@@ -15096,7 +14573,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
+    <row r="152" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>449</v>
       </c>
@@ -15108,7 +14585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
+    <row r="153" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>451</v>
       </c>
@@ -15122,7 +14599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
+    <row r="154" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>454</v>
       </c>
@@ -15136,7 +14613,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
+    <row r="155" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>458</v>
       </c>
@@ -15148,7 +14625,7 @@
         <v>460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row r="156" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>461</v>
       </c>
@@ -15162,7 +14639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
+    <row r="157" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>464</v>
       </c>
@@ -15176,7 +14653,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
+    <row r="158" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>467</v>
       </c>
@@ -15190,7 +14667,7 @@
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
+    <row r="159" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>470</v>
       </c>
@@ -15204,7 +14681,7 @@
         <v>473</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
+    <row r="160" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>474</v>
       </c>
@@ -15218,7 +14695,7 @@
         <v>477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
+    <row r="161" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>478</v>
       </c>
@@ -15232,7 +14709,7 @@
         <v>475</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
+    <row r="162" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>480</v>
       </c>
@@ -15246,7 +14723,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
+    <row r="163" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>482</v>
       </c>
@@ -15260,7 +14737,7 @@
         <v>485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
+    <row r="164" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>486</v>
       </c>
@@ -15274,7 +14751,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
+    <row r="165" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>490</v>
       </c>
@@ -15288,7 +14765,7 @@
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
+    <row r="166" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>491</v>
       </c>
@@ -15302,7 +14779,7 @@
         <v>494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
+    <row r="167" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>495</v>
       </c>
@@ -15314,7 +14791,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
+    <row r="168" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>496</v>
       </c>
@@ -15328,7 +14805,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
+    <row r="169" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>499</v>
       </c>
@@ -15342,7 +14819,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row r="170" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>503</v>
       </c>
@@ -15356,7 +14833,7 @@
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+    <row r="171" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>507</v>
       </c>
@@ -15370,7 +14847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row r="172" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>510</v>
       </c>
@@ -15382,7 +14859,7 @@
         <v>436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+    <row r="173" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>512</v>
       </c>
@@ -15394,7 +14871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
+    <row r="174" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>514</v>
       </c>
@@ -15408,7 +14885,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row r="175" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>518</v>
       </c>
@@ -15422,7 +14899,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+    <row r="176" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>521</v>
       </c>
@@ -15436,7 +14913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+    <row r="177" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>524</v>
       </c>
@@ -15450,7 +14927,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+    <row r="178" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>527</v>
       </c>
@@ -15464,7 +14941,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
+    <row r="179" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>529</v>
       </c>
@@ -15478,7 +14955,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+    <row r="180" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>532</v>
       </c>
@@ -15492,7 +14969,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
+    <row r="181" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>534</v>
       </c>
@@ -15506,7 +14983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row r="182" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>536</v>
       </c>
@@ -15520,7 +14997,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row r="183" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>538</v>
       </c>
@@ -15534,7 +15011,7 @@
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
+    <row r="184" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>541</v>
       </c>
@@ -15548,7 +15025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+    <row r="185" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>543</v>
       </c>
@@ -15562,7 +15039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+    <row r="186" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>545</v>
       </c>
@@ -15576,7 +15053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+    <row r="187" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>548</v>
       </c>
@@ -15588,7 +15065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+    <row r="188" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>550</v>
       </c>
@@ -15600,7 +15077,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+    <row r="189" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>552</v>
       </c>
@@ -15614,7 +15091,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+    <row r="190" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>555</v>
       </c>
@@ -15626,7 +15103,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+    <row r="191" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>557</v>
       </c>
@@ -15638,7 +15115,7 @@
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+    <row r="192" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>560</v>
       </c>
@@ -15652,7 +15129,7 @@
         <v>563</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+    <row r="193" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>564</v>
       </c>
@@ -15666,7 +15143,7 @@
         <v>304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row r="194" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>567</v>
       </c>
@@ -15680,7 +15157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
+    <row r="195" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>570</v>
       </c>
@@ -15692,7 +15169,7 @@
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
+    <row r="196" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>572</v>
       </c>
@@ -15706,7 +15183,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
+    <row r="197" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>575</v>
       </c>
@@ -15718,7 +15195,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+    <row r="198" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>576</v>
       </c>
@@ -15732,7 +15209,7 @@
         <v>579</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+    <row r="199" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>580</v>
       </c>
@@ -15746,7 +15223,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+    <row r="200" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>584</v>
       </c>
@@ -15760,7 +15237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row r="201" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>587</v>
       </c>
@@ -15774,7 +15251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row r="202" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>590</v>
       </c>
@@ -15786,7 +15263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+    <row r="203" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>592</v>
       </c>
@@ -15798,7 +15275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
+    <row r="204" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>594</v>
       </c>
@@ -15810,7 +15287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
+    <row r="205" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>595</v>
       </c>
@@ -15824,7 +15301,7 @@
         <v>597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" hidden="1">
+    <row r="206" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>598</v>
       </c>
@@ -15838,7 +15315,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" hidden="1">
+    <row r="207" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>601</v>
       </c>
@@ -15850,7 +15327,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
+    <row r="208" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>604</v>
       </c>
@@ -15864,7 +15341,7 @@
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
+    <row r="209" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>607</v>
       </c>
@@ -15878,7 +15355,7 @@
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" hidden="1">
+    <row r="210" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>611</v>
       </c>
@@ -15890,7 +15367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
+    <row r="211" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>613</v>
       </c>
@@ -15904,7 +15381,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
+    <row r="212" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>616</v>
       </c>
@@ -15918,7 +15395,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
+    <row r="213" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>619</v>
       </c>
@@ -15932,7 +15409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+    <row r="214" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>622</v>
       </c>
@@ -15944,7 +15421,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+    <row r="215" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>624</v>
       </c>
@@ -15958,7 +15435,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
+    <row r="216" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>627</v>
       </c>
@@ -15972,7 +15449,7 @@
         <v>630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+    <row r="217" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>631</v>
       </c>
@@ -15984,7 +15461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
+    <row r="218" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>633</v>
       </c>
@@ -15998,7 +15475,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
+    <row r="219" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>636</v>
       </c>
@@ -16012,7 +15489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
+    <row r="220" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>639</v>
       </c>
@@ -16024,7 +15501,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+    <row r="221" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>641</v>
       </c>
@@ -16036,7 +15513,7 @@
         <v>390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
+    <row r="222" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>643</v>
       </c>
@@ -16050,7 +15527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" hidden="1">
+    <row r="223" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>646</v>
       </c>
@@ -16062,7 +15539,7 @@
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
+    <row r="224" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>648</v>
       </c>
@@ -16076,7 +15553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
+    <row r="225" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>651</v>
       </c>
@@ -16090,7 +15567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
+    <row r="226" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>654</v>
       </c>
@@ -16102,7 +15579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
+    <row r="227" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>655</v>
       </c>
@@ -16114,7 +15591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+    <row r="228" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>656</v>
       </c>
@@ -16128,7 +15605,7 @@
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>659</v>
       </c>
@@ -16142,7 +15619,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+    <row r="230" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>662</v>
       </c>
@@ -16156,7 +15633,7 @@
         <v>665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+    <row r="231" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>666</v>
       </c>
@@ -16170,7 +15647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
+    <row r="232" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>669</v>
       </c>
@@ -16182,7 +15659,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+    <row r="233" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>671</v>
       </c>
@@ -16194,7 +15671,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+    <row r="234" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>673</v>
       </c>
@@ -16206,7 +15683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+    <row r="235" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>675</v>
       </c>
@@ -16218,7 +15695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+    <row r="236" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>676</v>
       </c>
@@ -16232,7 +15709,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+    <row r="237" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>678</v>
       </c>
@@ -16246,7 +15723,7 @@
         <v>681</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+    <row r="238" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>682</v>
       </c>
@@ -16260,7 +15737,7 @@
         <v>685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+    <row r="239" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>686</v>
       </c>
@@ -16274,7 +15751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+    <row r="240" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>688</v>
       </c>
@@ -16288,7 +15765,7 @@
         <v>681</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+    <row r="241" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>691</v>
       </c>
@@ -16302,7 +15779,7 @@
         <v>694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
+    <row r="242" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>695</v>
       </c>
@@ -16314,7 +15791,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
+    <row r="243" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>697</v>
       </c>
@@ -16328,7 +15805,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+    <row r="244" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>700</v>
       </c>
@@ -16342,7 +15819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+    <row r="245" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>703</v>
       </c>
@@ -16354,7 +15831,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+    <row r="246" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>706</v>
       </c>
@@ -16368,7 +15845,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+    <row r="247" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>709</v>
       </c>
@@ -16382,7 +15859,7 @@
         <v>712</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+    <row r="248" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>713</v>
       </c>
@@ -16394,7 +15871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+    <row r="249" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>715</v>
       </c>
@@ -16406,7 +15883,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+    <row r="250" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>716</v>
       </c>
@@ -16420,7 +15897,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+    <row r="251" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>719</v>
       </c>
@@ -16434,7 +15911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>722</v>
       </c>
@@ -16446,7 +15923,7 @@
         <v>724</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+    <row r="253" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>725</v>
       </c>
@@ -16460,7 +15937,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+    <row r="254" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>728</v>
       </c>
@@ -16474,7 +15951,7 @@
         <v>685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>731</v>
       </c>
@@ -16486,7 +15963,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+    <row r="256" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>733</v>
       </c>
@@ -16500,7 +15977,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+    <row r="257" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>735</v>
       </c>
@@ -16514,7 +15991,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+    <row r="258" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>738</v>
       </c>
@@ -16528,7 +16005,7 @@
         <v>741</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+    <row r="259" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>742</v>
       </c>
@@ -16542,7 +16019,7 @@
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+    <row r="260" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>746</v>
       </c>
@@ -16556,7 +16033,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+    <row r="261" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>749</v>
       </c>
@@ -16570,7 +16047,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" hidden="1">
+    <row r="262" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>751</v>
       </c>
@@ -16582,7 +16059,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
+    <row r="263" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>753</v>
       </c>
@@ -16596,7 +16073,7 @@
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+    <row r="264" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>757</v>
       </c>
@@ -16610,7 +16087,7 @@
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+    <row r="265" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>759</v>
       </c>
@@ -16622,7 +16099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+    <row r="266" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>761</v>
       </c>
@@ -16634,7 +16111,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
+    <row r="267" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>763</v>
       </c>
@@ -16648,7 +16125,7 @@
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
+    <row r="268" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>767</v>
       </c>
@@ -16660,7 +16137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
+    <row r="269" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>768</v>
       </c>
@@ -16674,7 +16151,7 @@
         <v>771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
+    <row r="270" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>772</v>
       </c>
@@ -16686,7 +16163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
+    <row r="271" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>774</v>
       </c>
@@ -16700,7 +16177,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
+    <row r="272" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>776</v>
       </c>
@@ -16712,7 +16189,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
+    <row r="273" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>778</v>
       </c>
@@ -16724,7 +16201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
+    <row r="274" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>780</v>
       </c>
@@ -16736,7 +16213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
+    <row r="275" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>782</v>
       </c>
@@ -16750,7 +16227,7 @@
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
+    <row r="276" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>786</v>
       </c>
@@ -16762,7 +16239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
+    <row r="277" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>788</v>
       </c>
@@ -16774,7 +16251,7 @@
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
+    <row r="278" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>791</v>
       </c>
@@ -16786,7 +16263,7 @@
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
+    <row r="279" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>792</v>
       </c>
@@ -16798,7 +16275,7 @@
         <v>794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
+    <row r="280" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>795</v>
       </c>
@@ -16812,7 +16289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
+    <row r="281" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>798</v>
       </c>
@@ -16824,7 +16301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" hidden="1">
+    <row r="282" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>801</v>
       </c>
@@ -16838,7 +16315,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" hidden="1">
+    <row r="283" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>804</v>
       </c>
@@ -16852,7 +16329,7 @@
         <v>807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" hidden="1">
+    <row r="284" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>808</v>
       </c>
@@ -16866,7 +16343,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" hidden="1">
+    <row r="285" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>811</v>
       </c>
@@ -16880,7 +16357,7 @@
         <v>814</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" hidden="1">
+    <row r="286" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>815</v>
       </c>
@@ -16892,7 +16369,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" hidden="1">
+    <row r="287" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>816</v>
       </c>
@@ -16906,7 +16383,7 @@
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" hidden="1">
+    <row r="288" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>819</v>
       </c>
@@ -16920,7 +16397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" hidden="1">
+    <row r="289" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>822</v>
       </c>
@@ -16934,7 +16411,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" hidden="1">
+    <row r="290" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>825</v>
       </c>
@@ -16946,7 +16423,7 @@
         <v>827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" hidden="1">
+    <row r="291" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>828</v>
       </c>
@@ -16958,7 +16435,7 @@
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" hidden="1">
+    <row r="292" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>830</v>
       </c>
@@ -16970,7 +16447,7 @@
         <v>827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" hidden="1">
+    <row r="293" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>832</v>
       </c>
@@ -16982,7 +16459,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" hidden="1">
+    <row r="294" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>835</v>
       </c>
@@ -16994,7 +16471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" hidden="1">
+    <row r="295" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>837</v>
       </c>
@@ -17008,7 +16485,7 @@
         <v>840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" hidden="1">
+    <row r="296" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>841</v>
       </c>
@@ -17020,7 +16497,7 @@
         <v>794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" hidden="1">
+    <row r="297" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>843</v>
       </c>
@@ -17032,7 +16509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" hidden="1">
+    <row r="298" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>845</v>
       </c>
@@ -17046,7 +16523,7 @@
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" hidden="1">
+    <row r="299" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>848</v>
       </c>
@@ -17060,7 +16537,7 @@
         <v>851</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" hidden="1">
+    <row r="300" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>852</v>
       </c>
@@ -17074,7 +16551,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" hidden="1">
+    <row r="301" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>855</v>
       </c>
@@ -17086,7 +16563,7 @@
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" hidden="1">
+    <row r="302" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>857</v>
       </c>
@@ -17098,7 +16575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" hidden="1">
+    <row r="303" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>859</v>
       </c>
@@ -17110,7 +16587,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" hidden="1">
+    <row r="304" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>860</v>
       </c>
@@ -17122,7 +16599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" hidden="1">
+    <row r="305" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>862</v>
       </c>
@@ -17134,7 +16611,7 @@
         <v>814</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+    <row r="306" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>864</v>
       </c>
@@ -17146,7 +16623,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" hidden="1">
+    <row r="307" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>865</v>
       </c>
@@ -17160,7 +16637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" hidden="1">
+    <row r="308" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>868</v>
       </c>
@@ -17172,7 +16649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" hidden="1">
+    <row r="309" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>870</v>
       </c>
@@ -17184,7 +16661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" hidden="1">
+    <row r="310" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>872</v>
       </c>
@@ -17196,7 +16673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" hidden="1">
+    <row r="311" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>874</v>
       </c>
@@ -17208,7 +16685,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" hidden="1">
+    <row r="312" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>876</v>
       </c>
@@ -17222,7 +16699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" hidden="1">
+    <row r="313" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>879</v>
       </c>
@@ -17234,7 +16711,7 @@
         <v>881</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" hidden="1">
+    <row r="314" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>882</v>
       </c>
@@ -17246,7 +16723,7 @@
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" hidden="1">
+    <row r="315" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>884</v>
       </c>
@@ -17258,7 +16735,7 @@
         <v>563</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" hidden="1">
+    <row r="316" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>886</v>
       </c>
@@ -17270,7 +16747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" hidden="1">
+    <row r="317" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>888</v>
       </c>
@@ -17282,7 +16759,7 @@
         <v>460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" hidden="1">
+    <row r="318" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>889</v>
       </c>
@@ -17296,7 +16773,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" hidden="1">
+    <row r="319" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>892</v>
       </c>
@@ -17310,7 +16787,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" hidden="1">
+    <row r="320" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>895</v>
       </c>
@@ -17322,7 +16799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" hidden="1">
+    <row r="321" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>896</v>
       </c>
@@ -17334,7 +16811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" hidden="1">
+    <row r="322" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>898</v>
       </c>
@@ -17348,7 +16825,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" hidden="1">
+    <row r="323" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>900</v>
       </c>
@@ -17362,7 +16839,7 @@
         <v>903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" hidden="1">
+    <row r="324" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>904</v>
       </c>
@@ -17376,7 +16853,7 @@
         <v>907</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" hidden="1">
+    <row r="325" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>908</v>
       </c>
@@ -17388,7 +16865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" hidden="1">
+    <row r="326" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>910</v>
       </c>
@@ -17402,7 +16879,7 @@
         <v>907</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" hidden="1">
+    <row r="327" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>913</v>
       </c>
@@ -17414,7 +16891,7 @@
         <v>915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" hidden="1">
+    <row r="328" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>916</v>
       </c>
@@ -17426,7 +16903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" hidden="1">
+    <row r="329" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>918</v>
       </c>
@@ -17440,7 +16917,7 @@
         <v>903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" hidden="1">
+    <row r="330" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>921</v>
       </c>
@@ -17452,7 +16929,7 @@
         <v>563</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" hidden="1">
+    <row r="331" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>922</v>
       </c>
@@ -17464,7 +16941,7 @@
         <v>915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" hidden="1">
+    <row r="332" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>924</v>
       </c>
@@ -17478,7 +16955,7 @@
         <v>927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" hidden="1">
+    <row r="333" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>928</v>
       </c>
@@ -17492,7 +16969,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" hidden="1">
+    <row r="334" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>931</v>
       </c>
@@ -17506,7 +16983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" hidden="1">
+    <row r="335" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>934</v>
       </c>
@@ -17518,7 +16995,7 @@
         <v>915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" hidden="1">
+    <row r="336" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>936</v>
       </c>
@@ -17532,7 +17009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" hidden="1">
+    <row r="337" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>939</v>
       </c>
@@ -17546,7 +17023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" hidden="1">
+    <row r="338" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>942</v>
       </c>
@@ -17558,7 +17035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" hidden="1">
+    <row r="339" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>944</v>
       </c>
@@ -17572,7 +17049,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" hidden="1">
+    <row r="340" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>948</v>
       </c>
@@ -17586,7 +17063,7 @@
         <v>927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" hidden="1">
+    <row r="341" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>951</v>
       </c>
@@ -17598,7 +17075,7 @@
         <v>881</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" hidden="1">
+    <row r="342" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>953</v>
       </c>
@@ -17610,7 +17087,7 @@
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" hidden="1">
+    <row r="343" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>955</v>
       </c>
@@ -17624,7 +17101,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" hidden="1">
+    <row r="344" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>958</v>
       </c>
@@ -17638,7 +17115,7 @@
         <v>961</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" hidden="1">
+    <row r="345" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>962</v>
       </c>
@@ -17652,7 +17129,7 @@
         <v>927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" hidden="1">
+    <row r="346" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>964</v>
       </c>
@@ -17666,7 +17143,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" hidden="1">
+    <row r="347" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>968</v>
       </c>
@@ -17680,7 +17157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" hidden="1">
+    <row r="348" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>971</v>
       </c>
@@ -17694,7 +17171,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" hidden="1">
+    <row r="349" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>973</v>
       </c>
@@ -17708,7 +17185,7 @@
         <v>927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" hidden="1">
+    <row r="350" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>976</v>
       </c>
@@ -17720,7 +17197,7 @@
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" hidden="1">
+    <row r="351" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>979</v>
       </c>
@@ -17732,7 +17209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" hidden="1">
+    <row r="352" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>981</v>
       </c>
@@ -17744,7 +17221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" hidden="1">
+    <row r="353" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>982</v>
       </c>
@@ -17756,7 +17233,7 @@
         <v>685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" hidden="1">
+    <row r="354" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>983</v>
       </c>
@@ -17770,7 +17247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" hidden="1">
+    <row r="355" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>985</v>
       </c>
@@ -17784,7 +17261,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" hidden="1">
+    <row r="356" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>987</v>
       </c>
@@ -17796,7 +17273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" hidden="1">
+    <row r="357" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>989</v>
       </c>
@@ -17810,7 +17287,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" hidden="1">
+    <row r="358" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>992</v>
       </c>
@@ -17822,7 +17299,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" hidden="1">
+    <row r="359" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>994</v>
       </c>
@@ -17834,7 +17311,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" hidden="1">
+    <row r="360" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>995</v>
       </c>
@@ -17846,7 +17323,7 @@
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" hidden="1">
+    <row r="361" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>996</v>
       </c>
@@ -17858,7 +17335,7 @@
         <v>998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" hidden="1">
+    <row r="362" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>999</v>
       </c>
@@ -17872,7 +17349,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" hidden="1">
+    <row r="363" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>1003</v>
       </c>
@@ -17884,7 +17361,7 @@
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" hidden="1">
+    <row r="364" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>1004</v>
       </c>
@@ -17896,7 +17373,7 @@
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" hidden="1">
+    <row r="365" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>1006</v>
       </c>
@@ -17908,7 +17385,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" hidden="1">
+    <row r="366" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>1008</v>
       </c>
@@ -17922,7 +17399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" hidden="1">
+    <row r="367" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>1010</v>
       </c>
@@ -17934,7 +17411,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" hidden="1">
+    <row r="368" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>1011</v>
       </c>
@@ -17946,7 +17423,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" hidden="1">
+    <row r="369" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>1012</v>
       </c>
@@ -17958,7 +17435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" hidden="1">
+    <row r="370" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>1014</v>
       </c>
@@ -17972,7 +17449,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" hidden="1">
+    <row r="371" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>1018</v>
       </c>
@@ -17986,7 +17463,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" hidden="1">
+    <row r="372" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>1022</v>
       </c>
@@ -18000,7 +17477,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" hidden="1">
+    <row r="373" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>1026</v>
       </c>
@@ -18014,7 +17491,7 @@
         <v>771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" hidden="1">
+    <row r="374" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>1028</v>
       </c>
@@ -18028,7 +17505,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" hidden="1">
+    <row r="375" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>1031</v>
       </c>
@@ -18042,7 +17519,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" hidden="1">
+    <row r="376" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>1033</v>
       </c>
@@ -18056,7 +17533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" hidden="1">
+    <row r="377" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>1034</v>
       </c>
@@ -18070,7 +17547,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" hidden="1">
+    <row r="378" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>1038</v>
       </c>
@@ -18084,7 +17561,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" hidden="1">
+    <row r="379" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>1040</v>
       </c>
@@ -18098,7 +17575,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" hidden="1">
+    <row r="380" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>1043</v>
       </c>
@@ -18112,7 +17589,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" hidden="1">
+    <row r="381" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>1047</v>
       </c>
@@ -18126,7 +17603,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" hidden="1">
+    <row r="382" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>1049</v>
       </c>
@@ -18138,7 +17615,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" hidden="1">
+    <row r="383" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>1051</v>
       </c>
@@ -18150,7 +17627,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" hidden="1">
+    <row r="384" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>1053</v>
       </c>
@@ -18162,7 +17639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" hidden="1">
+    <row r="385" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>1055</v>
       </c>
@@ -18174,7 +17651,7 @@
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" hidden="1">
+    <row r="386" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>1057</v>
       </c>
@@ -18186,7 +17663,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" hidden="1">
+    <row r="387" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>1059</v>
       </c>
@@ -18198,7 +17675,7 @@
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" hidden="1">
+    <row r="388" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>1060</v>
       </c>
@@ -18210,7 +17687,7 @@
         <v>630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" hidden="1">
+    <row r="389" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>1062</v>
       </c>
@@ -18222,7 +17699,7 @@
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" hidden="1">
+    <row r="390" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>1064</v>
       </c>
@@ -18234,7 +17711,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" hidden="1">
+    <row r="391" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>1065</v>
       </c>
@@ -18246,7 +17723,7 @@
         <v>998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" hidden="1">
+    <row r="392" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>1067</v>
       </c>
@@ -18258,7 +17735,7 @@
         <v>998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" hidden="1">
+    <row r="393" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>1069</v>
       </c>
@@ -18270,7 +17747,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" hidden="1">
+    <row r="394" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>1070</v>
       </c>
@@ -18282,7 +17759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" hidden="1">
+    <row r="395" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>1071</v>
       </c>
@@ -18294,7 +17771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" hidden="1">
+    <row r="396" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>1073</v>
       </c>
@@ -18306,7 +17783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" hidden="1">
+    <row r="397" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>1075</v>
       </c>
@@ -18318,7 +17795,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" hidden="1">
+    <row r="398" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>1077</v>
       </c>
@@ -18330,7 +17807,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" hidden="1">
+    <row r="399" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>1079</v>
       </c>
@@ -18342,7 +17819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" hidden="1">
+    <row r="400" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>1081</v>
       </c>
@@ -18354,7 +17831,7 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" hidden="1">
+    <row r="401" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>1082</v>
       </c>
@@ -18366,7 +17843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" hidden="1">
+    <row r="402" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>1084</v>
       </c>
@@ -18378,7 +17855,7 @@
         <v>597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" hidden="1">
+    <row r="403" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>1086</v>
       </c>
@@ -18390,7 +17867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" hidden="1">
+    <row r="404" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>1088</v>
       </c>
@@ -18402,7 +17879,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" hidden="1">
+    <row r="405" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
         <v>1090</v>
       </c>
@@ -18416,7 +17893,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" hidden="1">
+    <row r="406" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
         <v>1092</v>
       </c>
@@ -18428,7 +17905,7 @@
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" hidden="1">
+    <row r="407" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>1094</v>
       </c>
@@ -18440,7 +17917,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" hidden="1">
+    <row r="408" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
         <v>1096</v>
       </c>
@@ -18452,7 +17929,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" hidden="1">
+    <row r="409" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>1098</v>
       </c>
@@ -18466,7 +17943,7 @@
         <v>807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" hidden="1">
+    <row r="410" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>1101</v>
       </c>
@@ -18480,7 +17957,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" hidden="1">
+    <row r="411" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
         <v>1104</v>
       </c>
@@ -18492,7 +17969,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" hidden="1">
+    <row r="412" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
         <v>1106</v>
       </c>
@@ -18504,7 +17981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" hidden="1">
+    <row r="413" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>1108</v>
       </c>
@@ -18516,7 +17993,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" hidden="1">
+    <row r="414" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>1110</v>
       </c>
@@ -18530,7 +18007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" hidden="1">
+    <row r="415" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>1112</v>
       </c>
@@ -18542,7 +18019,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" hidden="1">
+    <row r="416" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>1113</v>
       </c>
@@ -18554,7 +18031,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" hidden="1">
+    <row r="417" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>1115</v>
       </c>
@@ -18566,7 +18043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" hidden="1">
+    <row r="418" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>1117</v>
       </c>
@@ -18578,7 +18055,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" hidden="1">
+    <row r="419" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>1119</v>
       </c>
@@ -18590,7 +18067,7 @@
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" hidden="1">
+    <row r="420" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>1121</v>
       </c>
@@ -18602,7 +18079,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" hidden="1">
+    <row r="421" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>1123</v>
       </c>
@@ -18614,7 +18091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" hidden="1">
+    <row r="422" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>1125</v>
       </c>
@@ -18626,7 +18103,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" hidden="1">
+    <row r="423" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>1127</v>
       </c>
@@ -18638,7 +18115,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" hidden="1">
+    <row r="424" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>1129</v>
       </c>
@@ -18650,7 +18127,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" hidden="1">
+    <row r="425" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>1131</v>
       </c>
@@ -18662,7 +18139,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" hidden="1">
+    <row r="426" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>1132</v>
       </c>
@@ -18676,7 +18153,7 @@
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" hidden="1">
+    <row r="427" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>1135</v>
       </c>
@@ -18690,7 +18167,7 @@
         <v>794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" hidden="1">
+    <row r="428" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>1138</v>
       </c>
@@ -18702,7 +18179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" hidden="1">
+    <row r="429" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>1140</v>
       </c>
@@ -18714,7 +18191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" hidden="1">
+    <row r="430" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>1141</v>
       </c>
@@ -18726,7 +18203,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" hidden="1">
+    <row r="431" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>1143</v>
       </c>
@@ -18738,7 +18215,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" hidden="1">
+    <row r="432" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>1145</v>
       </c>
@@ -18750,7 +18227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" hidden="1">
+    <row r="433" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>1147</v>
       </c>
@@ -18762,7 +18239,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" hidden="1">
+    <row r="434" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>1149</v>
       </c>
@@ -18774,7 +18251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" hidden="1">
+    <row r="435" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>1151</v>
       </c>
@@ -18786,7 +18263,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" hidden="1">
+    <row r="436" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>1153</v>
       </c>
@@ -18798,7 +18275,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" hidden="1">
+    <row r="437" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>1154</v>
       </c>
@@ -18810,7 +18287,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" hidden="1">
+    <row r="438" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>1156</v>
       </c>
@@ -18822,7 +18299,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" hidden="1">
+    <row r="439" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>1158</v>
       </c>
@@ -18834,7 +18311,7 @@
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" hidden="1">
+    <row r="440" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>1160</v>
       </c>
@@ -18846,7 +18323,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" hidden="1">
+    <row r="441" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>1163</v>
       </c>
@@ -18858,7 +18335,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" hidden="1">
+    <row r="442" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>1165</v>
       </c>
@@ -18870,7 +18347,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" hidden="1">
+    <row r="443" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>1167</v>
       </c>
@@ -18882,7 +18359,7 @@
         <v>814</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" hidden="1">
+    <row r="444" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>1169</v>
       </c>
@@ -18894,7 +18371,7 @@
         <v>827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" hidden="1">
+    <row r="445" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>1171</v>
       </c>
@@ -18906,7 +18383,7 @@
         <v>807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" hidden="1">
+    <row r="446" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>1172</v>
       </c>
@@ -18918,7 +18395,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" hidden="1">
+    <row r="447" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>1174</v>
       </c>
@@ -18930,7 +18407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" hidden="1">
+    <row r="448" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>1176</v>
       </c>
@@ -18942,7 +18419,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" hidden="1">
+    <row r="449" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>1178</v>
       </c>
@@ -18954,7 +18431,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" hidden="1">
+    <row r="450" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>1179</v>
       </c>
@@ -18966,7 +18443,7 @@
         <v>681</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" hidden="1">
+    <row r="451" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>1181</v>
       </c>
@@ -18978,7 +18455,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" hidden="1">
+    <row r="452" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>1183</v>
       </c>
@@ -18990,7 +18467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" hidden="1">
+    <row r="453" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>1185</v>
       </c>
@@ -19002,7 +18479,7 @@
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" hidden="1">
+    <row r="454" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>1187</v>
       </c>
@@ -19014,7 +18491,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" hidden="1">
+    <row r="455" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>1189</v>
       </c>
@@ -19026,7 +18503,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" hidden="1">
+    <row r="456" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>1191</v>
       </c>
@@ -19038,7 +18515,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" hidden="1">
+    <row r="457" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>1193</v>
       </c>
@@ -19050,7 +18527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" hidden="1">
+    <row r="458" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>1195</v>
       </c>
@@ -19062,7 +18539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" hidden="1">
+    <row r="459" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>1196</v>
       </c>
@@ -19074,7 +18551,7 @@
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" hidden="1">
+    <row r="460" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>1197</v>
       </c>
@@ -19086,7 +18563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" hidden="1">
+    <row r="461" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>1199</v>
       </c>
@@ -19098,7 +18575,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" hidden="1">
+    <row r="462" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>1201</v>
       </c>
@@ -19110,7 +18587,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" hidden="1">
+    <row r="463" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>1203</v>
       </c>
@@ -19122,7 +18599,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" hidden="1">
+    <row r="464" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>1206</v>
       </c>
@@ -19134,7 +18611,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" hidden="1">
+    <row r="465" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>1208</v>
       </c>
@@ -19146,7 +18623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" hidden="1">
+    <row r="466" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>1210</v>
       </c>
@@ -19158,7 +18635,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" hidden="1">
+    <row r="467" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>1213</v>
       </c>
@@ -19172,7 +18649,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+    <row r="468" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>1216</v>
       </c>
@@ -19184,7 +18661,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" hidden="1">
+    <row r="469" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>1218</v>
       </c>
@@ -19196,7 +18673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" hidden="1">
+    <row r="470" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>1220</v>
       </c>
@@ -19208,7 +18685,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" hidden="1">
+    <row r="471" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>1222</v>
       </c>
@@ -19222,7 +18699,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" hidden="1">
+    <row r="472" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>1224</v>
       </c>
@@ -19234,7 +18711,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" hidden="1">
+    <row r="473" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>1226</v>
       </c>
@@ -19246,7 +18723,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" hidden="1">
+    <row r="474" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>1228</v>
       </c>
@@ -19258,7 +18735,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" hidden="1">
+    <row r="475" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>1229</v>
       </c>
@@ -19270,7 +18747,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" hidden="1">
+    <row r="476" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>1232</v>
       </c>
@@ -19282,7 +18759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" hidden="1">
+    <row r="477" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>1234</v>
       </c>
@@ -19294,7 +18771,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" hidden="1">
+    <row r="478" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>1236</v>
       </c>
@@ -19306,7 +18783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" hidden="1">
+    <row r="479" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>1238</v>
       </c>
@@ -19318,7 +18795,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" hidden="1">
+    <row r="480" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>1240</v>
       </c>
@@ -19332,7 +18809,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
+    <row r="481" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>1242</v>
       </c>
@@ -19344,7 +18821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" hidden="1">
+    <row r="482" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>1244</v>
       </c>
@@ -19356,7 +18833,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" hidden="1">
+    <row r="483" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>1246</v>
       </c>
@@ -19368,7 +18845,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" hidden="1">
+    <row r="484" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>1247</v>
       </c>
@@ -19380,7 +18857,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" hidden="1">
+    <row r="485" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>1248</v>
       </c>
@@ -19392,7 +18869,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" hidden="1">
+    <row r="486" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>1251</v>
       </c>
@@ -19404,7 +18881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" hidden="1">
+    <row r="487" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>1253</v>
       </c>
@@ -19416,7 +18893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" hidden="1">
+    <row r="488" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>1255</v>
       </c>
@@ -19428,7 +18905,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
+    <row r="489" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>1257</v>
       </c>
@@ -19440,7 +18917,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" hidden="1">
+    <row r="490" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>1259</v>
       </c>
@@ -19452,7 +18929,7 @@
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" hidden="1">
+    <row r="491" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>1261</v>
       </c>
@@ -19464,7 +18941,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" hidden="1">
+    <row r="492" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
         <v>1263</v>
       </c>
@@ -19476,7 +18953,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" hidden="1">
+    <row r="493" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>1265</v>
       </c>
@@ -19488,7 +18965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" hidden="1">
+    <row r="494" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
         <v>1267</v>
       </c>
@@ -19500,7 +18977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" hidden="1">
+    <row r="495" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
         <v>1268</v>
       </c>
@@ -19512,7 +18989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" hidden="1">
+    <row r="496" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
         <v>1270</v>
       </c>
@@ -19524,7 +19001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" hidden="1">
+    <row r="497" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
         <v>1272</v>
       </c>
@@ -19536,7 +19013,7 @@
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" hidden="1">
+    <row r="498" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>1274</v>
       </c>
@@ -19548,7 +19025,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" hidden="1">
+    <row r="499" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
         <v>1275</v>
       </c>
@@ -19560,7 +19037,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" hidden="1">
+    <row r="500" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>1277</v>
       </c>
@@ -19574,7 +19051,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" hidden="1">
+    <row r="501" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
         <v>1281</v>
       </c>
@@ -19586,7 +19063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" hidden="1">
+    <row r="502" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
         <v>1283</v>
       </c>
@@ -19598,7 +19075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" hidden="1">
+    <row r="503" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>1285</v>
       </c>
@@ -19610,7 +19087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" hidden="1">
+    <row r="504" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
         <v>1287</v>
       </c>
@@ -19622,7 +19099,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" hidden="1">
+    <row r="505" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
         <v>1289</v>
       </c>
@@ -19634,7 +19111,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" hidden="1">
+    <row r="506" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
         <v>1291</v>
       </c>
@@ -19646,7 +19123,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" hidden="1">
+    <row r="507" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
         <v>1294</v>
       </c>
@@ -19658,7 +19135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" hidden="1">
+    <row r="508" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
         <v>1296</v>
       </c>
@@ -19670,7 +19147,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" hidden="1">
+    <row r="509" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
         <v>1298</v>
       </c>
@@ -19684,7 +19161,7 @@
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" hidden="1">
+    <row r="510" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
         <v>1301</v>
       </c>
@@ -19698,7 +19175,7 @@
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" hidden="1">
+    <row r="511" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
         <v>1304</v>
       </c>
@@ -19710,7 +19187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" hidden="1">
+    <row r="512" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
         <v>1306</v>
       </c>
@@ -19722,7 +19199,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" hidden="1">
+    <row r="513" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
         <v>1308</v>
       </c>
@@ -19734,7 +19211,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" hidden="1">
+    <row r="514" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
         <v>1310</v>
       </c>
@@ -19748,7 +19225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" hidden="1">
+    <row r="515" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
         <v>1312</v>
       </c>
@@ -19760,7 +19237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" hidden="1">
+    <row r="516" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
         <v>1314</v>
       </c>
@@ -19772,7 +19249,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" hidden="1">
+    <row r="517" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
         <v>1316</v>
       </c>
@@ -19784,7 +19261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" hidden="1">
+    <row r="518" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
         <v>1318</v>
       </c>
@@ -19798,7 +19275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" hidden="1">
+    <row r="519" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
         <v>1321</v>
       </c>
@@ -19812,7 +19289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" hidden="1">
+    <row r="520" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
         <v>1323</v>
       </c>
@@ -19824,7 +19301,7 @@
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" hidden="1">
+    <row r="521" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
         <v>1324</v>
       </c>
@@ -19836,7 +19313,7 @@
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" hidden="1">
+    <row r="522" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
         <v>1326</v>
       </c>
@@ -19848,7 +19325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" hidden="1">
+    <row r="523" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
         <v>1328</v>
       </c>
@@ -19862,7 +19339,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" hidden="1">
+    <row r="524" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
         <v>1331</v>
       </c>
@@ -19876,7 +19353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
+    <row r="525" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
         <v>1334</v>
       </c>
@@ -19888,7 +19365,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" hidden="1">
+    <row r="526" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
         <v>1336</v>
       </c>
@@ -19900,7 +19377,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
+    <row r="527" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
         <v>1338</v>
       </c>
@@ -19912,7 +19389,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" hidden="1">
+    <row r="528" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="s">
         <v>1340</v>
       </c>
@@ -19926,7 +19403,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" hidden="1">
+    <row r="529" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
         <v>1344</v>
       </c>
@@ -19938,7 +19415,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" hidden="1">
+    <row r="530" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
         <v>1346</v>
       </c>
@@ -19952,7 +19429,7 @@
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
+    <row r="531" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
         <v>1349</v>
       </c>
@@ -19964,7 +19441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
+    <row r="532" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
         <v>1351</v>
       </c>
@@ -19976,7 +19453,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" hidden="1">
+    <row r="533" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
         <v>1353</v>
       </c>
@@ -19988,7 +19465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" hidden="1">
+    <row r="534" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
         <v>1355</v>
       </c>
@@ -20000,7 +19477,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" hidden="1">
+    <row r="535" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
         <v>1356</v>
       </c>
@@ -20014,7 +19491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" hidden="1">
+    <row r="536" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
         <v>1359</v>
       </c>
@@ -20026,7 +19503,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" hidden="1">
+    <row r="537" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
         <v>1360</v>
       </c>
@@ -20038,7 +19515,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" hidden="1">
+    <row r="538" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
         <v>1362</v>
       </c>
@@ -20050,7 +19527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" hidden="1">
+    <row r="539" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
         <v>1364</v>
       </c>
@@ -20062,7 +19539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" hidden="1">
+    <row r="540" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
         <v>1365</v>
       </c>
@@ -20074,7 +19551,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" hidden="1">
+    <row r="541" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
         <v>1367</v>
       </c>
@@ -20086,7 +19563,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" hidden="1">
+    <row r="542" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
         <v>1368</v>
       </c>
@@ -20098,7 +19575,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" hidden="1">
+    <row r="543" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
         <v>1370</v>
       </c>
@@ -20110,7 +19587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" hidden="1">
+    <row r="544" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
         <v>1371</v>
       </c>
@@ -20122,7 +19599,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" hidden="1">
+    <row r="545" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
         <v>1373</v>
       </c>
@@ -20134,7 +19611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" hidden="1">
+    <row r="546" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
         <v>1375</v>
       </c>
@@ -20146,7 +19623,7 @@
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" hidden="1">
+    <row r="547" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
         <v>1376</v>
       </c>
@@ -20158,7 +19635,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" hidden="1">
+    <row r="548" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
         <v>1378</v>
       </c>
@@ -20170,7 +19647,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" hidden="1">
+    <row r="549" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
         <v>1380</v>
       </c>
@@ -20182,7 +19659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" hidden="1">
+    <row r="550" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
         <v>1382</v>
       </c>
@@ -20194,7 +19671,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" hidden="1">
+    <row r="551" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
         <v>1384</v>
       </c>
@@ -20206,7 +19683,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" hidden="1">
+    <row r="552" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
         <v>1386</v>
       </c>
@@ -20218,7 +19695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" hidden="1">
+    <row r="553" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
         <v>1388</v>
       </c>
@@ -20230,7 +19707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" hidden="1">
+    <row r="554" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
         <v>1389</v>
       </c>
@@ -20242,7 +19719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" hidden="1">
+    <row r="555" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
         <v>1391</v>
       </c>
@@ -20254,7 +19731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" hidden="1">
+    <row r="556" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
         <v>1393</v>
       </c>
@@ -20266,7 +19743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" hidden="1">
+    <row r="557" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
         <v>1395</v>
       </c>
@@ -20278,7 +19755,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" hidden="1">
+    <row r="558" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
         <v>1397</v>
       </c>
@@ -20290,7 +19767,7 @@
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" hidden="1">
+    <row r="559" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
         <v>1399</v>
       </c>
@@ -20302,7 +19779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" hidden="1">
+    <row r="560" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
         <v>1400</v>
       </c>
@@ -20314,7 +19791,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" hidden="1">
+    <row r="561" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
         <v>1402</v>
       </c>
@@ -20326,7 +19803,7 @@
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" hidden="1">
+    <row r="562" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
         <v>1404</v>
       </c>
@@ -20338,7 +19815,7 @@
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" hidden="1">
+    <row r="563" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
         <v>1406</v>
       </c>
@@ -20350,7 +19827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" hidden="1">
+    <row r="564" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
         <v>1408</v>
       </c>
@@ -20362,7 +19839,7 @@
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" hidden="1">
+    <row r="565" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
         <v>1410</v>
       </c>
@@ -20374,7 +19851,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" hidden="1">
+    <row r="566" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
         <v>1413</v>
       </c>
@@ -20386,7 +19863,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" hidden="1">
+    <row r="567" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
         <v>1416</v>
       </c>
@@ -20400,7 +19877,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" hidden="1">
+    <row r="568" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
         <v>1420</v>
       </c>
@@ -20412,7 +19889,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" hidden="1">
+    <row r="569" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
         <v>1422</v>
       </c>
@@ -20424,7 +19901,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" hidden="1">
+    <row r="570" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
         <v>1425</v>
       </c>
@@ -20436,7 +19913,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" hidden="1">
+    <row r="571" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
         <v>1428</v>
       </c>
@@ -20448,7 +19925,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" hidden="1">
+    <row r="572" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
         <v>1430</v>
       </c>
@@ -20460,7 +19937,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" hidden="1">
+    <row r="573" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
         <v>1432</v>
       </c>
@@ -20472,7 +19949,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" hidden="1">
+    <row r="574" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
         <v>1434</v>
       </c>
@@ -20484,7 +19961,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" hidden="1">
+    <row r="575" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
         <v>1436</v>
       </c>
@@ -20496,7 +19973,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" hidden="1">
+    <row r="576" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
         <v>1439</v>
       </c>
@@ -20508,7 +19985,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" hidden="1">
+    <row r="577" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
         <v>1440</v>
       </c>
@@ -20520,7 +19997,7 @@
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" hidden="1">
+    <row r="578" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
         <v>1441</v>
       </c>
@@ -20532,7 +20009,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" hidden="1">
+    <row r="579" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
         <v>1443</v>
       </c>
@@ -20544,7 +20021,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" hidden="1">
+    <row r="580" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
         <v>1444</v>
       </c>
@@ -20556,7 +20033,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" hidden="1">
+    <row r="581" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
         <v>1446</v>
       </c>
@@ -20568,7 +20045,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" hidden="1">
+    <row r="582" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
         <v>1448</v>
       </c>
@@ -20580,7 +20057,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" hidden="1">
+    <row r="583" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
         <v>1450</v>
       </c>
@@ -20592,7 +20069,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" hidden="1">
+    <row r="584" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
         <v>1452</v>
       </c>
@@ -20604,7 +20081,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" hidden="1">
+    <row r="585" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
         <v>1454</v>
       </c>
@@ -20616,7 +20093,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" hidden="1">
+    <row r="586" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
         <v>1456</v>
       </c>
@@ -20628,7 +20105,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" hidden="1">
+    <row r="587" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
         <v>1458</v>
       </c>
@@ -20640,7 +20117,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" hidden="1">
+    <row r="588" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
         <v>1460</v>
       </c>
@@ -20652,7 +20129,7 @@
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" hidden="1">
+    <row r="589" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
         <v>1461</v>
       </c>
@@ -20664,7 +20141,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" hidden="1">
+    <row r="590" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
         <v>1463</v>
       </c>
@@ -20676,7 +20153,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" hidden="1">
+    <row r="591" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
         <v>1464</v>
       </c>
@@ -20690,7 +20167,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" hidden="1">
+    <row r="592" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
         <v>1466</v>
       </c>
@@ -20702,7 +20179,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" hidden="1">
+    <row r="593" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
         <v>1468</v>
       </c>
@@ -20714,7 +20191,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" hidden="1">
+    <row r="594" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
         <v>1470</v>
       </c>
@@ -20728,7 +20205,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" hidden="1">
+    <row r="595" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
         <v>1472</v>
       </c>
@@ -20740,7 +20217,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" hidden="1">
+    <row r="596" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
         <v>1473</v>
       </c>
@@ -20754,7 +20231,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" hidden="1">
+    <row r="597" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
         <v>1476</v>
       </c>
@@ -20768,7 +20245,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" hidden="1">
+    <row r="598" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
         <v>1477</v>
       </c>
@@ -20782,7 +20259,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" hidden="1">
+    <row r="599" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
         <v>1479</v>
       </c>
@@ -20794,7 +20271,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" hidden="1">
+    <row r="600" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
         <v>1480</v>
       </c>
@@ -20808,7 +20285,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" hidden="1">
+    <row r="601" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
         <v>1482</v>
       </c>
@@ -20820,7 +20297,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" hidden="1">
+    <row r="602" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
         <v>1483</v>
       </c>
@@ -20832,7 +20309,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" hidden="1">
+    <row r="603" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
         <v>1484</v>
       </c>
@@ -20844,7 +20321,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" hidden="1">
+    <row r="604" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
         <v>1486</v>
       </c>
@@ -20856,7 +20333,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" hidden="1">
+    <row r="605" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
         <v>1488</v>
       </c>
@@ -20870,7 +20347,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" hidden="1">
+    <row r="606" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
         <v>1491</v>
       </c>
@@ -20884,7 +20361,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" hidden="1">
+    <row r="607" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
         <v>1494</v>
       </c>
@@ -20898,7 +20375,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75" hidden="1">
+    <row r="608" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
         <v>1497</v>
       </c>
@@ -20912,7 +20389,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" hidden="1">
+    <row r="609" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
         <v>1499</v>
       </c>
@@ -20926,7 +20403,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" hidden="1">
+    <row r="610" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
         <v>1501</v>
       </c>
@@ -20936,7 +20413,7 @@
       <c r="C610" s="7"/>
       <c r="D610" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" hidden="1">
+    <row r="611" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
         <v>1502</v>
       </c>
@@ -20948,7 +20425,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" hidden="1">
+    <row r="612" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
         <v>1504</v>
       </c>
@@ -20960,7 +20437,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" hidden="1">
+    <row r="613" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
         <v>1505</v>
       </c>
@@ -20972,7 +20449,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" hidden="1">
+    <row r="614" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
         <v>1506</v>
       </c>
@@ -20984,7 +20461,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" hidden="1">
+    <row r="615" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
         <v>1507</v>
       </c>
@@ -20996,7 +20473,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" hidden="1">
+    <row r="616" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
         <v>1508</v>
       </c>
@@ -21010,7 +20487,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" hidden="1">
+    <row r="617" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
         <v>1511</v>
       </c>
@@ -21020,7 +20497,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" hidden="1">
+    <row r="618" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
         <v>1512</v>
       </c>
@@ -21032,7 +20509,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" hidden="1">
+    <row r="619" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="s">
         <v>1513</v>
       </c>
@@ -21044,7 +20521,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" hidden="1">
+    <row r="620" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="s">
         <v>1514</v>
       </c>
@@ -21056,7 +20533,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" hidden="1">
+    <row r="621" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
         <v>1515</v>
       </c>
@@ -21068,7 +20545,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" hidden="1">
+    <row r="622" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
         <v>1516</v>
       </c>
@@ -21080,7 +20557,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" hidden="1">
+    <row r="623" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9" t="s">
         <v>1517</v>
       </c>
@@ -21092,7 +20569,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" hidden="1">
+    <row r="624" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9" t="s">
         <v>1519</v>
       </c>
@@ -21104,7 +20581,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" hidden="1">
+    <row r="625" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9" t="s">
         <v>1521</v>
       </c>
@@ -21118,7 +20595,7 @@
         <v>967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" hidden="1">
+    <row r="626" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
         <v>1523</v>
       </c>
@@ -21132,7 +20609,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75" hidden="1">
+    <row r="627" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="11" t="s">
         <v>1526</v>
       </c>
